--- a/Eye_Tracker_Raw_Data/LookTime/250ms/no_labels/Explicit Memory/Tadpole_ET_summary_ER_250ms_NoLabels_4.25-4.5.xlsx
+++ b/Eye_Tracker_Raw_Data/LookTime/250ms/no_labels/Explicit Memory/Tadpole_ET_summary_ER_250ms_NoLabels_4.25-4.5.xlsx
@@ -50,7 +50,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -354,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO81"/>
+  <dimension ref="A1:AO85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10339,6 +10340,466 @@
       <c r="AN81" s="1"/>
       <c r="AO81" s="1"/>
     </row>
+    <row r="82" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>130</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0</v>
+      </c>
+      <c r="H82" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I82" s="2">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2">
+        <v>0</v>
+      </c>
+      <c r="K82" s="2">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="M82" s="2">
+        <v>0</v>
+      </c>
+      <c r="N82" s="2">
+        <v>0</v>
+      </c>
+      <c r="O82" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="P82" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>0</v>
+      </c>
+      <c r="R82" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="S82" s="2">
+        <v>0</v>
+      </c>
+      <c r="T82" s="2">
+        <v>0</v>
+      </c>
+      <c r="U82" s="2">
+        <v>0</v>
+      </c>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="2"/>
+      <c r="Z82" s="2"/>
+      <c r="AA82" s="2"/>
+      <c r="AB82" s="2"/>
+      <c r="AC82" s="2"/>
+      <c r="AD82" s="2"/>
+      <c r="AE82" s="2"/>
+      <c r="AF82" s="2"/>
+      <c r="AG82" s="2"/>
+      <c r="AH82" s="2"/>
+      <c r="AI82" s="2"/>
+      <c r="AJ82" s="2"/>
+      <c r="AK82" s="2"/>
+      <c r="AL82" s="2"/>
+      <c r="AM82" s="2"/>
+      <c r="AN82" s="2"/>
+      <c r="AO82" s="2"/>
+    </row>
+    <row r="83" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>131</v>
+      </c>
+      <c r="B83" s="2">
+        <v>0</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0</v>
+      </c>
+      <c r="G83" s="2">
+        <v>0</v>
+      </c>
+      <c r="H83" s="2">
+        <v>0</v>
+      </c>
+      <c r="I83" s="2">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2">
+        <v>0</v>
+      </c>
+      <c r="K83" s="2">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="M83" s="2">
+        <v>0</v>
+      </c>
+      <c r="N83" s="2">
+        <v>0</v>
+      </c>
+      <c r="O83" s="2">
+        <v>0</v>
+      </c>
+      <c r="P83" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>0</v>
+      </c>
+      <c r="R83" s="2">
+        <v>0</v>
+      </c>
+      <c r="S83" s="2">
+        <v>0</v>
+      </c>
+      <c r="T83" s="2">
+        <v>0</v>
+      </c>
+      <c r="U83" s="2">
+        <v>0</v>
+      </c>
+      <c r="V83" s="2">
+        <v>0</v>
+      </c>
+      <c r="W83" s="2">
+        <v>0</v>
+      </c>
+      <c r="X83" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="AA83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>133</v>
+      </c>
+      <c r="B84" s="2">
+        <v>0</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0</v>
+      </c>
+      <c r="G84" s="2">
+        <v>0</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0</v>
+      </c>
+      <c r="I84" s="2">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2">
+        <v>0</v>
+      </c>
+      <c r="K84" s="2">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2">
+        <v>0</v>
+      </c>
+      <c r="M84" s="2">
+        <v>0</v>
+      </c>
+      <c r="N84" s="2">
+        <v>0</v>
+      </c>
+      <c r="O84" s="2">
+        <v>0</v>
+      </c>
+      <c r="P84" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>0</v>
+      </c>
+      <c r="R84" s="2">
+        <v>0</v>
+      </c>
+      <c r="S84" s="2">
+        <v>0</v>
+      </c>
+      <c r="T84" s="2">
+        <v>0</v>
+      </c>
+      <c r="U84" s="2">
+        <v>0</v>
+      </c>
+      <c r="V84" s="2">
+        <v>0</v>
+      </c>
+      <c r="W84" s="2">
+        <v>0</v>
+      </c>
+      <c r="X84" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="Y84" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="Z84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN84" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="AO84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>134</v>
+      </c>
+      <c r="B85" s="2">
+        <v>0</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0</v>
+      </c>
+      <c r="F85" s="2">
+        <v>0</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0</v>
+      </c>
+      <c r="H85" s="2">
+        <v>0</v>
+      </c>
+      <c r="I85" s="2">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2">
+        <v>0</v>
+      </c>
+      <c r="K85" s="2">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2">
+        <v>0</v>
+      </c>
+      <c r="M85" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="N85" s="2">
+        <v>0</v>
+      </c>
+      <c r="O85" s="2">
+        <v>0</v>
+      </c>
+      <c r="P85" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>0</v>
+      </c>
+      <c r="R85" s="2">
+        <v>0</v>
+      </c>
+      <c r="S85" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="T85" s="2">
+        <v>0</v>
+      </c>
+      <c r="U85" s="2">
+        <v>0</v>
+      </c>
+      <c r="V85" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="W85" s="2">
+        <v>0</v>
+      </c>
+      <c r="X85" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="AB85" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="AC85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="AE85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="AG85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN85" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AO85" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
